--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1081617.119636377</v>
+        <v>-1084173.435463627</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>169.6570454831032</v>
       </c>
       <c r="G2" t="n">
-        <v>100.5205878903137</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -795,7 +795,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494241</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.45373272836877</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>88.72586971366957</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.2832540250818</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>196.2055420350612</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>299.8265913752296</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>22.15546799834821</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.17030691226217</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>12.18900818880589</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>25.76404188060936</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>14.95687341106452</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>107.0704956909094</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>114.0495374903442</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>108.5813113004298</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.402108275623</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>134.566597553411</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>210.7001060820189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>146.6281161973735</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.40444476188276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298073</v>
       </c>
     </row>
     <row r="23">
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6814669854336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.1630968205462</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1734.047335491682</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="C2" t="n">
-        <v>1365.08481855127</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="D2" t="n">
-        <v>1006.81911994452</v>
+        <v>1378.324071350431</v>
       </c>
       <c r="E2" t="n">
-        <v>621.0308673462755</v>
+        <v>992.5358187521865</v>
       </c>
       <c r="F2" t="n">
-        <v>210.0449625566679</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792695</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X2" t="n">
-        <v>2510.786507531615</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y2" t="n">
-        <v>2120.647175555804</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="3">
@@ -4398,49 +4398,49 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.5113141560028</v>
+        <v>303.0241545499621</v>
       </c>
       <c r="C4" t="n">
-        <v>259.5113141560028</v>
+        <v>303.0241545499621</v>
       </c>
       <c r="D4" t="n">
-        <v>109.394674743667</v>
+        <v>303.0241545499621</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>303.0241545499621</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>156.1342070520517</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>156.1342070520517</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450119</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450119</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450119</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V4" t="n">
-        <v>487.5008650540201</v>
+        <v>729.201121645011</v>
       </c>
       <c r="W4" t="n">
-        <v>487.5008650540201</v>
+        <v>531.0137054479794</v>
       </c>
       <c r="X4" t="n">
-        <v>259.5113141560028</v>
+        <v>303.0241545499621</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.5113141560028</v>
+        <v>303.0241545499621</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>822.3500627855844</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>411.3641579959769</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3303.226561004779</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3303.226561004779</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3049.696084278616</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2718.633196935045</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2718.633196935045</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>320.1870662708831</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C7" t="n">
-        <v>320.1870662708831</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D7" t="n">
-        <v>170.0704268585473</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757135</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452395</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U7" t="n">
-        <v>320.1870662708831</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V7" t="n">
-        <v>320.1870662708831</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="W7" t="n">
-        <v>320.1870662708831</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="X7" t="n">
-        <v>320.1870662708831</v>
+        <v>246.5270825411068</v>
       </c>
       <c r="Y7" t="n">
-        <v>320.1870662708831</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422266</v>
+        <v>1918.208919851714</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481854</v>
+        <v>1549.246402911303</v>
       </c>
       <c r="D8" t="n">
-        <v>889.4262728751039</v>
+        <v>1190.980704304552</v>
       </c>
       <c r="E8" t="n">
-        <v>503.6380202768597</v>
+        <v>805.192451706308</v>
       </c>
       <c r="F8" t="n">
-        <v>92.6521154872521</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>81.62006937265265</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>2304.808759915836</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486388</v>
+        <v>2304.808759915836</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>174.6641322815868</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>699.120390387711</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>583.9188373671614</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302008</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>203.4947552706282</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524076</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868274</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662387</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625426</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727409</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782927</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797714</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5975,37 +5975,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6789,16 +6789,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,16 +6841,16 @@
         <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7075,13 +7075,13 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,25 +7333,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7549,16 +7549,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797191</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,10 +7846,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>237.2190002586082</v>
       </c>
       <c r="G2" t="n">
-        <v>310.4011377631397</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>56.02914520065121</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>12.85438929874619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23467,7 +23467,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516653</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520957</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016461</v>
+        <v>46.45968844823355</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>15.00954930701826</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.89602209489539</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.150513196503681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>6.257951202385044</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.288480726625471e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1225968.498660317</v>
+        <v>1225968.498660318</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1225968.498660317</v>
+        <v>1225968.498660318</v>
       </c>
     </row>
     <row r="12">
@@ -26320,37 +26320,37 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691496</v>
+        <v>11387.33216691508</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26433,31 +26433,31 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="L4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.4432349855</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="O4" t="n">
         <v>24037.44323498546</v>
       </c>
-      <c r="M4" t="n">
-        <v>24037.44323498544</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498545</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498541</v>
-      </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498543</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278813.877561579</v>
+        <v>-1279173.960577297</v>
       </c>
       <c r="C6" t="n">
-        <v>3729.757800625026</v>
+        <v>3729.757800624924</v>
       </c>
       <c r="D6" t="n">
-        <v>3729.757800625186</v>
+        <v>3729.757800624677</v>
       </c>
       <c r="E6" t="n">
-        <v>-240794.9256806527</v>
+        <v>-240829.6636060885</v>
       </c>
       <c r="F6" t="n">
-        <v>84617.53612670246</v>
+        <v>84582.79820126678</v>
       </c>
       <c r="G6" t="n">
-        <v>84617.53612670246</v>
+        <v>84582.79820126682</v>
       </c>
       <c r="H6" t="n">
-        <v>84617.53612670241</v>
+        <v>84582.79820126676</v>
       </c>
       <c r="I6" t="n">
-        <v>84617.53612670246</v>
+        <v>84582.79820126676</v>
       </c>
       <c r="J6" t="n">
-        <v>-132913.666270575</v>
+        <v>-132948.4041960107</v>
       </c>
       <c r="K6" t="n">
-        <v>84617.53612670246</v>
+        <v>84582.79820126675</v>
       </c>
       <c r="L6" t="n">
-        <v>58631.16538353855</v>
+        <v>58631.16538353852</v>
       </c>
       <c r="M6" t="n">
-        <v>-6996.144558341402</v>
+        <v>-6996.144558341563</v>
       </c>
       <c r="N6" t="n">
-        <v>78058.88337717004</v>
+        <v>78058.88337717013</v>
       </c>
       <c r="O6" t="n">
-        <v>78058.88337717006</v>
+        <v>78058.88337716996</v>
       </c>
       <c r="P6" t="n">
-        <v>78058.88337716987</v>
+        <v>78058.88337717016</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.9802299182004</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>90.31745630152977</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>111.0951342782239</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>87.03229378982761</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>140.263655734307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>206.3956451632889</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>381.1120038611021</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>279.6508909762559</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>37.68451922341141</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,19 +28062,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>138.0881058334838</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,70 +28087,70 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295035</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
